--- a/План разработки.xlsx
+++ b/План разработки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RANGER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITXAMPLE\RANGER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616DBFB-85C2-47DC-8632-04A51B127A9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A173401-35A0-42E6-84A5-4BE99AB41F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{7480CB57-0E79-4A51-A9DE-59E8CDE18408}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7480CB57-0E79-4A51-A9DE-59E8CDE18408}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Поэтапный план успеха</t>
   </si>
   <si>
-    <t>Составление схемы "МОЗГ" в программе "Альтиум"</t>
-  </si>
-  <si>
-    <t>Разводка платы "БАЗА" в программе "Альтиум"</t>
-  </si>
-  <si>
-    <t>Составление схемы "БАЗА" в программе "Альтиум"</t>
-  </si>
-  <si>
-    <t>Согласование ТЗ печатной платы "БАЗА"</t>
-  </si>
-  <si>
-    <t>Согласование ТЗ печатной платы "МОЗГ"</t>
-  </si>
-  <si>
-    <t>Размещение заказа на производство платы "БАЗА" в Китае или Резонит</t>
-  </si>
-  <si>
-    <t>Разводка платы "МОЗГ" в программе "Альтиум"</t>
-  </si>
-  <si>
-    <t>Изготовление прототипа платы "МОЗГ" в домашних условиях.</t>
-  </si>
-  <si>
     <t>Составление ТЗ первой версии ПО микроконтроллера</t>
   </si>
   <si>
     <t>Составление ТЗ конфигурационного ПО для компъютера</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>Процессор: STM32F103
+Модуль внешней связи: Нет
+Модуль внутренней связи: SPI
+Память: наличие внешней флеш-памяти, объем 1 ГБ.</t>
+  </si>
+  <si>
+    <t>Процессор: STM32F407
+Модуль внешней связи: Ethernet, RS485, RS232, USB
+Модуль внутренней связи: SPI
+Память: наличие внешней флеш-памяти, объем 1 ГБ.</t>
+  </si>
+  <si>
+    <t>Согласование ТЗ печатной платы "ЦПМ" - центральный процессорный модуль</t>
+  </si>
+  <si>
+    <t>Согласование ТЗ печатной платы "УИМ" универсальный процессорный модуль</t>
+  </si>
+  <si>
+    <t>Составление схемы "УИМ" в программе "Альтиум"</t>
+  </si>
+  <si>
+    <t>Разводка платы "УИМ" в программе "Альтиум"</t>
+  </si>
+  <si>
+    <t>Размещение заказа на производство платы "УИМ" в Китае или Резонит</t>
+  </si>
+  <si>
+    <t>Составление схемы "ЦПМ" в программе "Альтиум"</t>
+  </si>
+  <si>
+    <t>Разводка платы "ЦПМ" в программе "Альтиум"</t>
+  </si>
+  <si>
+    <t>Изготовление прототипа платы "ЦПМ" в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Разработка стандарта программирования модуля ЦПМ.
+Ориентируемся на языки IEC 61131-3. Есть использовать аналог MITSUBISHI FX-1, FX-2. Среда програмирования - GX Developer.</t>
+  </si>
+  <si>
+    <t>Мысли вслух:</t>
+  </si>
+  <si>
+    <t>Может действитеьно взять Mitsubishi fx-2 за основу?</t>
+  </si>
+  <si>
+    <t>И развивать их под себя?</t>
   </si>
 </sst>
 </file>
@@ -82,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,15 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5A15EF-B895-432B-BAC8-FA53ED2C1D8D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -436,108 +490,148 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
